--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syd/Downloads/VytrackApplication_v1/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1823252-187F-5E4C-A399-F06CE0A7E59C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42CB04-E60E-DB4A-9836-6F036A5472E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="27640" windowHeight="15880" xr2:uid="{4A943953-65B6-6747-8443-4350C898ABCD}"/>
+    <workbookView xWindow="18300" yWindow="460" windowWidth="23180" windowHeight="13620" xr2:uid="{4A943953-65B6-6747-8443-4350C898ABCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -42,7 +42,7 @@
     <t>storemanager222</t>
   </si>
   <si>
-    <t>salesmanager285</t>
+    <t>salesmanager286</t>
   </si>
 </sst>
 </file>
@@ -402,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBF384F-37B1-754A-A9CB-23C50B7E2C83}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -435,12 +435,66 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Book1.xlsx
+++ b/src/test/resources/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syd/Downloads/VytrackApplication_v1/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syd/Downloads/VytrackApplication_v2/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42CB04-E60E-DB4A-9836-6F036A5472E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EA83A7-19B4-874A-A02F-0343ACC97C0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="460" windowWidth="23180" windowHeight="13620" xr2:uid="{4A943953-65B6-6747-8443-4350C898ABCD}"/>
+    <workbookView xWindow="5620" yWindow="460" windowWidth="23180" windowHeight="13620" xr2:uid="{4A943953-65B6-6747-8443-4350C898ABCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
